--- a/tests/artifact/script/CostCenter.xlsx
+++ b/tests/artifact/script/CostCenter.xlsx
@@ -3341,7 +3341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3350,7 +3350,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3426,10 +3425,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3440,10 +3435,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3471,9 +3462,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3533,10 +3521,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3547,18 +3531,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3582,14 +3554,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6672,2917 +6636,2917 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.9916666666667" style="8" customWidth="1"/>
-    <col min="2" max="2" width="42.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10" style="10" customWidth="1"/>
-    <col min="4" max="4" width="32.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="70.375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="30.3333333333333" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="11" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="11" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="13" customWidth="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="15" customWidth="1"/>
-    <col min="14" max="14" width="19" style="14" customWidth="1"/>
-    <col min="15" max="15" width="49.8333333333333" style="13" customWidth="1"/>
+    <col min="1" max="1" width="23.9916666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10" style="9" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="70.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.3333333333333" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="10" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="14" customWidth="1"/>
+    <col min="14" max="14" width="19" style="13" customWidth="1"/>
+    <col min="15" max="15" width="49.8333333333333" style="12" customWidth="1"/>
     <col min="16" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>726</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>728</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>729</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="18" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="17" t="s">
         <v>731</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="54"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.15" spans="1:15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="10" customHeight="1" spans="1:15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="26"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>733</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>725</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>734</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>735</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>736</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>737</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>738</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>739</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>740</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="54" t="s">
         <v>741</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="28" t="s">
+      <c r="K4" s="55"/>
+      <c r="L4" s="27" t="s">
         <v>742</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="27" t="s">
         <v>743</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="27" t="s">
         <v>744</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="27" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="41" customHeight="1" spans="1:15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="29" t="s">
         <v>748</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="71" t="s">
         <v>749</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="53"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" ht="23" customHeight="1" spans="1:15">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="53"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="53"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="49"/>
     </row>
     <row r="8" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="53"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" ht="23" customHeight="1" spans="1:15">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="53"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="49"/>
     </row>
     <row r="10" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="53"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="53"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="53"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="49"/>
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:15">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="53"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="49"/>
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:15">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="53"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="53"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="49"/>
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="53"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="49"/>
     </row>
     <row r="17" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="53"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="49"/>
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="53"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="49"/>
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="53"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="49"/>
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="53"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="49"/>
     </row>
     <row r="21" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="53"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="49"/>
     </row>
     <row r="22" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="53"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="49"/>
     </row>
     <row r="23" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="53"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="49"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:15">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="53"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="49"/>
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:15">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="53"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="49"/>
     </row>
     <row r="26" ht="23" customHeight="1" spans="1:15">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="53"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="49"/>
     </row>
     <row r="27" ht="23" customHeight="1" spans="1:15">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="53"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="49"/>
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:15">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="53"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="49"/>
     </row>
     <row r="29" ht="23" customHeight="1" spans="1:15">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="53"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="49"/>
     </row>
     <row r="30" ht="23" customHeight="1" spans="1:15">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="53"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" ht="23" customHeight="1" spans="1:15">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="53"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="49"/>
     </row>
     <row r="32" ht="23" customHeight="1" spans="1:15">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="53"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="49"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="53"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="49"/>
     </row>
     <row r="34" ht="23" customHeight="1" spans="1:15">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="53"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="49"/>
     </row>
     <row r="35" ht="23" customHeight="1" spans="1:15">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="53"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="49"/>
     </row>
     <row r="36" ht="23" customHeight="1" spans="1:15">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="53"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="49"/>
     </row>
     <row r="37" ht="23" customHeight="1" spans="1:15">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="53"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="49"/>
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:15">
-      <c r="A38" s="46"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="53"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="49"/>
     </row>
     <row r="39" ht="23" customHeight="1" spans="1:15">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="53"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="49"/>
     </row>
     <row r="40" ht="23" customHeight="1" spans="1:15">
-      <c r="A40" s="46"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="53"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="49"/>
     </row>
     <row r="41" ht="23" customHeight="1" spans="1:15">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="53"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="49"/>
     </row>
     <row r="42" ht="23" customHeight="1" spans="1:15">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="53"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="49"/>
     </row>
     <row r="43" ht="23" customHeight="1" spans="1:15">
-      <c r="A43" s="46"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="53"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="49"/>
     </row>
     <row r="44" ht="23" customHeight="1" spans="1:15">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="53"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="49"/>
     </row>
     <row r="45" ht="23" customHeight="1" spans="1:15">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="53"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="49"/>
     </row>
     <row r="46" ht="23" customHeight="1" spans="1:15">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="53"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="49"/>
     </row>
     <row r="47" ht="23" customHeight="1" spans="1:15">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="53"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="49"/>
     </row>
     <row r="48" ht="23" customHeight="1" spans="1:15">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="53"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="49"/>
     </row>
     <row r="49" ht="23" customHeight="1" spans="1:15">
-      <c r="A49" s="46"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="53"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="49"/>
     </row>
     <row r="50" ht="23" customHeight="1" spans="1:15">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="53"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="49"/>
     </row>
     <row r="51" ht="23" customHeight="1" spans="1:15">
-      <c r="A51" s="46"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="53"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="49"/>
     </row>
     <row r="52" ht="23" customHeight="1" spans="1:15">
-      <c r="A52" s="46"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="53"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="49"/>
     </row>
     <row r="53" ht="23" customHeight="1" spans="1:15">
-      <c r="A53" s="46"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="53"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="49"/>
     </row>
     <row r="54" ht="23" customHeight="1" spans="1:15">
-      <c r="A54" s="46"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="53"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="49"/>
     </row>
     <row r="55" ht="23" customHeight="1" spans="1:15">
-      <c r="A55" s="46"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="53"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="49"/>
     </row>
     <row r="56" ht="23" customHeight="1" spans="1:15">
-      <c r="A56" s="46"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="53"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="49"/>
     </row>
     <row r="57" ht="23" customHeight="1" spans="1:15">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="53"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="49"/>
     </row>
     <row r="58" ht="23" customHeight="1" spans="1:15">
-      <c r="A58" s="46"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="53"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="49"/>
     </row>
     <row r="59" ht="23" customHeight="1" spans="1:15">
-      <c r="A59" s="46"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="53"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="49"/>
     </row>
     <row r="60" ht="23" customHeight="1" spans="1:15">
-      <c r="A60" s="46"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="69"/>
-      <c r="O60" s="53"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="49"/>
     </row>
     <row r="61" ht="23" customHeight="1" spans="1:15">
-      <c r="A61" s="46"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="69"/>
-      <c r="O61" s="53"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="49"/>
     </row>
     <row r="62" ht="23" customHeight="1" spans="1:15">
-      <c r="A62" s="46"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="70"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="53"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="49"/>
     </row>
     <row r="63" ht="23" customHeight="1" spans="1:15">
-      <c r="A63" s="46"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="70"/>
-      <c r="N63" s="69"/>
-      <c r="O63" s="53"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="49"/>
     </row>
     <row r="64" ht="23" customHeight="1" spans="1:15">
-      <c r="A64" s="46"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="70"/>
-      <c r="N64" s="69"/>
-      <c r="O64" s="53"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="49"/>
     </row>
     <row r="65" ht="23" customHeight="1" spans="1:15">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="70"/>
-      <c r="N65" s="69"/>
-      <c r="O65" s="53"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="49"/>
     </row>
     <row r="66" ht="23" customHeight="1" spans="1:15">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="70"/>
-      <c r="N66" s="69"/>
-      <c r="O66" s="53"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="62"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="49"/>
     </row>
     <row r="67" ht="23" customHeight="1" spans="1:15">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="69"/>
-      <c r="M67" s="70"/>
-      <c r="N67" s="69"/>
-      <c r="O67" s="53"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="49"/>
     </row>
     <row r="68" ht="23" customHeight="1" spans="1:15">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="70"/>
-      <c r="N68" s="69"/>
-      <c r="O68" s="53"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="49"/>
     </row>
     <row r="69" ht="23" customHeight="1" spans="1:15">
-      <c r="A69" s="46"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="70"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="53"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="49"/>
     </row>
     <row r="70" ht="23" customHeight="1" spans="1:15">
-      <c r="A70" s="46"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="70"/>
-      <c r="N70" s="69"/>
-      <c r="O70" s="53"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="49"/>
     </row>
     <row r="71" ht="23" customHeight="1" spans="1:15">
-      <c r="A71" s="46"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="69"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="69"/>
-      <c r="O71" s="53"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="49"/>
     </row>
     <row r="72" ht="23" customHeight="1" spans="1:15">
-      <c r="A72" s="46"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="69"/>
-      <c r="M72" s="70"/>
-      <c r="N72" s="69"/>
-      <c r="O72" s="53"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="49"/>
     </row>
     <row r="73" ht="23" customHeight="1" spans="1:15">
-      <c r="A73" s="46"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="70"/>
-      <c r="N73" s="69"/>
-      <c r="O73" s="53"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="49"/>
     </row>
     <row r="74" ht="23" customHeight="1" spans="1:15">
-      <c r="A74" s="46"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="69"/>
-      <c r="M74" s="70"/>
-      <c r="N74" s="69"/>
-      <c r="O74" s="53"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="49"/>
     </row>
     <row r="75" ht="23" customHeight="1" spans="1:15">
-      <c r="A75" s="46"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="69"/>
-      <c r="M75" s="70"/>
-      <c r="N75" s="69"/>
-      <c r="O75" s="53"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="49"/>
     </row>
     <row r="76" ht="23" customHeight="1" spans="1:15">
-      <c r="A76" s="46"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="70"/>
-      <c r="N76" s="69"/>
-      <c r="O76" s="53"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="62"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="49"/>
     </row>
     <row r="77" ht="23" customHeight="1" spans="1:15">
-      <c r="A77" s="46"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="70"/>
-      <c r="N77" s="69"/>
-      <c r="O77" s="53"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="49"/>
     </row>
     <row r="78" ht="23" customHeight="1" spans="1:15">
-      <c r="A78" s="46"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="69"/>
-      <c r="O78" s="53"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="49"/>
     </row>
     <row r="79" ht="23" customHeight="1" spans="1:15">
-      <c r="A79" s="46"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="69"/>
-      <c r="M79" s="70"/>
-      <c r="N79" s="69"/>
-      <c r="O79" s="53"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="61"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="49"/>
     </row>
     <row r="80" ht="23" customHeight="1" spans="1:15">
-      <c r="A80" s="46"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="69"/>
-      <c r="M80" s="70"/>
-      <c r="N80" s="69"/>
-      <c r="O80" s="53"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="62"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="49"/>
     </row>
     <row r="81" ht="23" customHeight="1" spans="1:15">
-      <c r="A81" s="46"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="69"/>
-      <c r="M81" s="70"/>
-      <c r="N81" s="69"/>
-      <c r="O81" s="53"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="49"/>
     </row>
     <row r="82" ht="23" customHeight="1" spans="1:15">
-      <c r="A82" s="46"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="69"/>
-      <c r="M82" s="70"/>
-      <c r="N82" s="69"/>
-      <c r="O82" s="53"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="49"/>
     </row>
     <row r="83" ht="23" customHeight="1" spans="1:15">
-      <c r="A83" s="46"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="69"/>
-      <c r="M83" s="70"/>
-      <c r="N83" s="69"/>
-      <c r="O83" s="53"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="49"/>
     </row>
     <row r="84" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="46"/>
-      <c r="B84" s="47"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="69"/>
-      <c r="M84" s="70"/>
-      <c r="N84" s="69"/>
-      <c r="O84" s="53"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="62"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="49"/>
     </row>
     <row r="85" ht="23" customHeight="1" spans="1:15">
-      <c r="A85" s="46"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="69"/>
-      <c r="M85" s="70"/>
-      <c r="N85" s="69"/>
-      <c r="O85" s="53"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="62"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="49"/>
     </row>
     <row r="86" ht="23" customHeight="1" spans="1:15">
-      <c r="A86" s="46"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="69"/>
-      <c r="M86" s="70"/>
-      <c r="N86" s="69"/>
-      <c r="O86" s="53"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="62"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="49"/>
     </row>
     <row r="87" ht="23" customHeight="1" spans="1:15">
-      <c r="A87" s="46"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="70"/>
-      <c r="N87" s="69"/>
-      <c r="O87" s="53"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="49"/>
     </row>
     <row r="88" ht="23" customHeight="1" spans="1:15">
-      <c r="A88" s="46"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="69"/>
-      <c r="M88" s="70"/>
-      <c r="N88" s="69"/>
-      <c r="O88" s="53"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="62"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="49"/>
     </row>
     <row r="89" ht="23" customHeight="1" spans="1:15">
-      <c r="A89" s="46"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="70"/>
-      <c r="N89" s="69"/>
-      <c r="O89" s="53"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="62"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="49"/>
     </row>
     <row r="90" ht="23" customHeight="1" spans="1:15">
-      <c r="A90" s="46"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="70"/>
-      <c r="N90" s="69"/>
-      <c r="O90" s="53"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="49"/>
     </row>
     <row r="91" ht="23" customHeight="1" spans="1:15">
-      <c r="A91" s="46"/>
-      <c r="B91" s="47"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="69"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="69"/>
-      <c r="O91" s="53"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="62"/>
+      <c r="N91" s="61"/>
+      <c r="O91" s="49"/>
     </row>
     <row r="92" ht="23" customHeight="1" spans="1:15">
-      <c r="A92" s="46"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="70"/>
-      <c r="N92" s="69"/>
-      <c r="O92" s="53"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="62"/>
+      <c r="N92" s="61"/>
+      <c r="O92" s="49"/>
     </row>
     <row r="93" ht="23" customHeight="1" spans="1:15">
-      <c r="A93" s="46"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="50"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="70"/>
-      <c r="N93" s="69"/>
-      <c r="O93" s="53"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="46"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="62"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="49"/>
     </row>
     <row r="94" ht="23" customHeight="1" spans="1:15">
-      <c r="A94" s="46"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="69"/>
-      <c r="M94" s="70"/>
-      <c r="N94" s="69"/>
-      <c r="O94" s="53"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="61"/>
+      <c r="M94" s="62"/>
+      <c r="N94" s="61"/>
+      <c r="O94" s="49"/>
     </row>
     <row r="95" ht="23" customHeight="1" spans="1:15">
-      <c r="A95" s="46"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="69"/>
-      <c r="M95" s="70"/>
-      <c r="N95" s="69"/>
-      <c r="O95" s="53"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="61"/>
+      <c r="M95" s="62"/>
+      <c r="N95" s="61"/>
+      <c r="O95" s="49"/>
     </row>
     <row r="96" ht="23" customHeight="1" spans="1:15">
-      <c r="A96" s="46"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="70"/>
-      <c r="N96" s="69"/>
-      <c r="O96" s="53"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="61"/>
+      <c r="M96" s="62"/>
+      <c r="N96" s="61"/>
+      <c r="O96" s="49"/>
     </row>
     <row r="97" ht="23" customHeight="1" spans="1:15">
-      <c r="A97" s="46"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="69"/>
-      <c r="M97" s="70"/>
-      <c r="N97" s="69"/>
-      <c r="O97" s="53"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="62"/>
+      <c r="N97" s="61"/>
+      <c r="O97" s="49"/>
     </row>
     <row r="98" ht="23" customHeight="1" spans="1:15">
-      <c r="A98" s="46"/>
-      <c r="B98" s="47"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="69"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="69"/>
-      <c r="O98" s="53"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="61"/>
+      <c r="M98" s="62"/>
+      <c r="N98" s="61"/>
+      <c r="O98" s="49"/>
     </row>
     <row r="99" ht="23" customHeight="1" spans="1:15">
-      <c r="A99" s="46"/>
-      <c r="B99" s="47"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="70"/>
-      <c r="N99" s="69"/>
-      <c r="O99" s="53"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="62"/>
+      <c r="N99" s="61"/>
+      <c r="O99" s="49"/>
     </row>
     <row r="100" ht="23" customHeight="1" spans="1:15">
-      <c r="A100" s="46"/>
-      <c r="B100" s="47"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="49"/>
-      <c r="H100" s="49"/>
-      <c r="I100" s="49"/>
-      <c r="J100" s="50"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="69"/>
-      <c r="M100" s="70"/>
-      <c r="N100" s="69"/>
-      <c r="O100" s="53"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="62"/>
+      <c r="N100" s="61"/>
+      <c r="O100" s="49"/>
     </row>
     <row r="101" ht="23" customHeight="1" spans="1:15">
-      <c r="A101" s="46"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="69"/>
-      <c r="M101" s="70"/>
-      <c r="N101" s="69"/>
-      <c r="O101" s="53"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="62"/>
+      <c r="N101" s="61"/>
+      <c r="O101" s="49"/>
     </row>
     <row r="102" ht="23" customHeight="1" spans="1:15">
-      <c r="A102" s="46"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="49"/>
-      <c r="H102" s="49"/>
-      <c r="I102" s="49"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="70"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="53"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="46"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="61"/>
+      <c r="M102" s="62"/>
+      <c r="N102" s="61"/>
+      <c r="O102" s="49"/>
     </row>
     <row r="103" ht="23" customHeight="1" spans="1:15">
-      <c r="A103" s="46"/>
-      <c r="B103" s="47"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="49"/>
-      <c r="I103" s="49"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="69"/>
-      <c r="M103" s="70"/>
-      <c r="N103" s="69"/>
-      <c r="O103" s="53"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="61"/>
+      <c r="M103" s="62"/>
+      <c r="N103" s="61"/>
+      <c r="O103" s="49"/>
     </row>
     <row r="104" ht="23" customHeight="1" spans="1:15">
-      <c r="A104" s="46"/>
-      <c r="B104" s="47"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="49"/>
-      <c r="I104" s="49"/>
-      <c r="J104" s="50"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="69"/>
-      <c r="M104" s="70"/>
-      <c r="N104" s="69"/>
-      <c r="O104" s="53"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="46"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="61"/>
+      <c r="M104" s="62"/>
+      <c r="N104" s="61"/>
+      <c r="O104" s="49"/>
     </row>
     <row r="105" ht="23" customHeight="1" spans="1:15">
-      <c r="A105" s="46"/>
-      <c r="B105" s="47"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
-      <c r="H105" s="49"/>
-      <c r="I105" s="49"/>
-      <c r="J105" s="50"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="69"/>
-      <c r="M105" s="70"/>
-      <c r="N105" s="69"/>
-      <c r="O105" s="53"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="46"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="61"/>
+      <c r="M105" s="62"/>
+      <c r="N105" s="61"/>
+      <c r="O105" s="49"/>
     </row>
     <row r="106" ht="23" customHeight="1" spans="1:15">
-      <c r="A106" s="46"/>
-      <c r="B106" s="47"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49"/>
-      <c r="J106" s="50"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="69"/>
-      <c r="M106" s="70"/>
-      <c r="N106" s="69"/>
-      <c r="O106" s="53"/>
+      <c r="A106" s="42"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="46"/>
+      <c r="K106" s="49"/>
+      <c r="L106" s="61"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="61"/>
+      <c r="O106" s="49"/>
     </row>
     <row r="107" ht="23" customHeight="1" spans="1:15">
-      <c r="A107" s="46"/>
-      <c r="B107" s="47"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
-      <c r="I107" s="49"/>
-      <c r="J107" s="50"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="69"/>
-      <c r="M107" s="70"/>
-      <c r="N107" s="69"/>
-      <c r="O107" s="53"/>
+      <c r="A107" s="42"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="49"/>
+      <c r="L107" s="61"/>
+      <c r="M107" s="62"/>
+      <c r="N107" s="61"/>
+      <c r="O107" s="49"/>
     </row>
     <row r="108" ht="23" customHeight="1" spans="1:15">
-      <c r="A108" s="46"/>
-      <c r="B108" s="47"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="49"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="49"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
-      <c r="I108" s="49"/>
-      <c r="J108" s="50"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="69"/>
-      <c r="M108" s="70"/>
-      <c r="N108" s="69"/>
-      <c r="O108" s="53"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="45"/>
+      <c r="J108" s="46"/>
+      <c r="K108" s="49"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="62"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="49"/>
     </row>
     <row r="109" ht="23" customHeight="1" spans="1:15">
-      <c r="A109" s="46"/>
-      <c r="B109" s="47"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="49"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="53"/>
-      <c r="L109" s="69"/>
-      <c r="M109" s="70"/>
-      <c r="N109" s="69"/>
-      <c r="O109" s="53"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="46"/>
+      <c r="K109" s="49"/>
+      <c r="L109" s="61"/>
+      <c r="M109" s="62"/>
+      <c r="N109" s="61"/>
+      <c r="O109" s="49"/>
     </row>
     <row r="110" ht="23" customHeight="1" spans="1:15">
-      <c r="A110" s="46"/>
-      <c r="B110" s="47"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="49"/>
-      <c r="G110" s="49"/>
-      <c r="H110" s="49"/>
-      <c r="I110" s="49"/>
-      <c r="J110" s="50"/>
-      <c r="K110" s="53"/>
-      <c r="L110" s="69"/>
-      <c r="M110" s="70"/>
-      <c r="N110" s="69"/>
-      <c r="O110" s="53"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="49"/>
+      <c r="L110" s="61"/>
+      <c r="M110" s="62"/>
+      <c r="N110" s="61"/>
+      <c r="O110" s="49"/>
     </row>
     <row r="111" ht="23" customHeight="1" spans="1:15">
-      <c r="A111" s="46"/>
-      <c r="B111" s="47"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="49"/>
-      <c r="G111" s="49"/>
-      <c r="H111" s="49"/>
-      <c r="I111" s="49"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="53"/>
-      <c r="L111" s="69"/>
-      <c r="M111" s="70"/>
-      <c r="N111" s="69"/>
-      <c r="O111" s="53"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="46"/>
+      <c r="K111" s="49"/>
+      <c r="L111" s="61"/>
+      <c r="M111" s="62"/>
+      <c r="N111" s="61"/>
+      <c r="O111" s="49"/>
     </row>
     <row r="112" ht="23" customHeight="1" spans="1:15">
-      <c r="A112" s="46"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
-      <c r="I112" s="49"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="53"/>
-      <c r="L112" s="69"/>
-      <c r="M112" s="70"/>
-      <c r="N112" s="69"/>
-      <c r="O112" s="53"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="45"/>
+      <c r="J112" s="46"/>
+      <c r="K112" s="49"/>
+      <c r="L112" s="61"/>
+      <c r="M112" s="62"/>
+      <c r="N112" s="61"/>
+      <c r="O112" s="49"/>
     </row>
     <row r="113" ht="23" customHeight="1" spans="1:15">
-      <c r="A113" s="46"/>
-      <c r="B113" s="47"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="49"/>
-      <c r="H113" s="49"/>
-      <c r="I113" s="49"/>
-      <c r="J113" s="50"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="69"/>
-      <c r="M113" s="70"/>
-      <c r="N113" s="69"/>
-      <c r="O113" s="53"/>
+      <c r="A113" s="42"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="45"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="61"/>
+      <c r="M113" s="62"/>
+      <c r="N113" s="61"/>
+      <c r="O113" s="49"/>
     </row>
     <row r="114" ht="23" customHeight="1" spans="1:15">
-      <c r="A114" s="46"/>
-      <c r="B114" s="47"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
-      <c r="G114" s="49"/>
-      <c r="H114" s="49"/>
-      <c r="I114" s="49"/>
-      <c r="J114" s="50"/>
-      <c r="K114" s="53"/>
-      <c r="L114" s="69"/>
-      <c r="M114" s="70"/>
-      <c r="N114" s="69"/>
-      <c r="O114" s="53"/>
+      <c r="A114" s="42"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="45"/>
+      <c r="J114" s="46"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="62"/>
+      <c r="N114" s="61"/>
+      <c r="O114" s="49"/>
     </row>
     <row r="115" ht="23" customHeight="1" spans="1:15">
-      <c r="A115" s="46"/>
-      <c r="B115" s="47"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="49"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="49"/>
-      <c r="H115" s="49"/>
-      <c r="I115" s="49"/>
-      <c r="J115" s="50"/>
-      <c r="K115" s="53"/>
-      <c r="L115" s="69"/>
-      <c r="M115" s="70"/>
-      <c r="N115" s="69"/>
-      <c r="O115" s="53"/>
+      <c r="A115" s="42"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="45"/>
+      <c r="J115" s="46"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="61"/>
+      <c r="M115" s="62"/>
+      <c r="N115" s="61"/>
+      <c r="O115" s="49"/>
     </row>
     <row r="116" ht="23" customHeight="1" spans="1:15">
-      <c r="A116" s="46"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="49"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="49"/>
-      <c r="G116" s="49"/>
-      <c r="H116" s="49"/>
-      <c r="I116" s="49"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="69"/>
-      <c r="M116" s="70"/>
-      <c r="N116" s="69"/>
-      <c r="O116" s="53"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="45"/>
+      <c r="J116" s="46"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="61"/>
+      <c r="M116" s="62"/>
+      <c r="N116" s="61"/>
+      <c r="O116" s="49"/>
     </row>
     <row r="117" ht="23" customHeight="1" spans="1:15">
-      <c r="A117" s="46"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="49"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="50"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="69"/>
-      <c r="M117" s="70"/>
-      <c r="N117" s="69"/>
-      <c r="O117" s="53"/>
+      <c r="A117" s="42"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="45"/>
+      <c r="J117" s="46"/>
+      <c r="K117" s="49"/>
+      <c r="L117" s="61"/>
+      <c r="M117" s="62"/>
+      <c r="N117" s="61"/>
+      <c r="O117" s="49"/>
     </row>
     <row r="118" ht="23" customHeight="1" spans="1:15">
-      <c r="A118" s="46"/>
-      <c r="B118" s="47"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="49"/>
-      <c r="E118" s="49"/>
-      <c r="F118" s="49"/>
-      <c r="G118" s="49"/>
-      <c r="H118" s="49"/>
-      <c r="I118" s="49"/>
-      <c r="J118" s="50"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="69"/>
-      <c r="M118" s="70"/>
-      <c r="N118" s="69"/>
-      <c r="O118" s="53"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="45"/>
+      <c r="J118" s="46"/>
+      <c r="K118" s="49"/>
+      <c r="L118" s="61"/>
+      <c r="M118" s="62"/>
+      <c r="N118" s="61"/>
+      <c r="O118" s="49"/>
     </row>
     <row r="119" ht="23" customHeight="1" spans="1:15">
-      <c r="A119" s="46"/>
-      <c r="B119" s="47"/>
-      <c r="C119" s="48"/>
-      <c r="D119" s="49"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="49"/>
-      <c r="G119" s="49"/>
-      <c r="H119" s="49"/>
-      <c r="I119" s="49"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="69"/>
-      <c r="M119" s="70"/>
-      <c r="N119" s="69"/>
-      <c r="O119" s="53"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="45"/>
+      <c r="I119" s="45"/>
+      <c r="J119" s="46"/>
+      <c r="K119" s="49"/>
+      <c r="L119" s="61"/>
+      <c r="M119" s="62"/>
+      <c r="N119" s="61"/>
+      <c r="O119" s="49"/>
     </row>
     <row r="120" ht="23" customHeight="1" spans="1:15">
-      <c r="A120" s="46"/>
-      <c r="B120" s="47"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="49"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="49"/>
-      <c r="G120" s="49"/>
-      <c r="H120" s="49"/>
-      <c r="I120" s="49"/>
-      <c r="J120" s="50"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="69"/>
-      <c r="M120" s="70"/>
-      <c r="N120" s="69"/>
-      <c r="O120" s="53"/>
+      <c r="A120" s="42"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="45"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="45"/>
+      <c r="I120" s="45"/>
+      <c r="J120" s="46"/>
+      <c r="K120" s="49"/>
+      <c r="L120" s="61"/>
+      <c r="M120" s="62"/>
+      <c r="N120" s="61"/>
+      <c r="O120" s="49"/>
     </row>
     <row r="121" ht="23" customHeight="1" spans="1:15">
-      <c r="A121" s="46"/>
-      <c r="B121" s="47"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="49"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="49"/>
-      <c r="G121" s="49"/>
-      <c r="H121" s="49"/>
-      <c r="I121" s="49"/>
-      <c r="J121" s="50"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="69"/>
-      <c r="M121" s="70"/>
-      <c r="N121" s="69"/>
-      <c r="O121" s="53"/>
+      <c r="A121" s="42"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="46"/>
+      <c r="K121" s="49"/>
+      <c r="L121" s="61"/>
+      <c r="M121" s="62"/>
+      <c r="N121" s="61"/>
+      <c r="O121" s="49"/>
     </row>
     <row r="122" ht="23" customHeight="1" spans="1:15">
-      <c r="A122" s="46"/>
-      <c r="B122" s="47"/>
-      <c r="C122" s="48"/>
-      <c r="D122" s="49"/>
-      <c r="E122" s="49"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="49"/>
-      <c r="H122" s="49"/>
-      <c r="I122" s="49"/>
-      <c r="J122" s="50"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="69"/>
-      <c r="M122" s="70"/>
-      <c r="N122" s="69"/>
-      <c r="O122" s="53"/>
+      <c r="A122" s="42"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="45"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="49"/>
+      <c r="L122" s="61"/>
+      <c r="M122" s="62"/>
+      <c r="N122" s="61"/>
+      <c r="O122" s="49"/>
     </row>
     <row r="123" ht="23" customHeight="1" spans="1:15">
-      <c r="A123" s="46"/>
-      <c r="B123" s="47"/>
-      <c r="C123" s="48"/>
-      <c r="D123" s="49"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="49"/>
-      <c r="G123" s="49"/>
-      <c r="H123" s="49"/>
-      <c r="I123" s="49"/>
-      <c r="J123" s="50"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="69"/>
-      <c r="M123" s="70"/>
-      <c r="N123" s="69"/>
-      <c r="O123" s="53"/>
+      <c r="A123" s="42"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="45"/>
+      <c r="I123" s="45"/>
+      <c r="J123" s="46"/>
+      <c r="K123" s="49"/>
+      <c r="L123" s="61"/>
+      <c r="M123" s="62"/>
+      <c r="N123" s="61"/>
+      <c r="O123" s="49"/>
     </row>
     <row r="124" ht="23" customHeight="1" spans="1:15">
-      <c r="A124" s="46"/>
-      <c r="B124" s="47"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="49"/>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49"/>
-      <c r="H124" s="49"/>
-      <c r="I124" s="49"/>
-      <c r="J124" s="50"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="69"/>
-      <c r="M124" s="70"/>
-      <c r="N124" s="69"/>
-      <c r="O124" s="53"/>
+      <c r="A124" s="42"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="45"/>
+      <c r="I124" s="45"/>
+      <c r="J124" s="46"/>
+      <c r="K124" s="49"/>
+      <c r="L124" s="61"/>
+      <c r="M124" s="62"/>
+      <c r="N124" s="61"/>
+      <c r="O124" s="49"/>
     </row>
     <row r="125" ht="23" customHeight="1" spans="1:15">
-      <c r="A125" s="46"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="49"/>
-      <c r="E125" s="49"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="49"/>
-      <c r="H125" s="49"/>
-      <c r="I125" s="49"/>
-      <c r="J125" s="50"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="69"/>
-      <c r="M125" s="70"/>
-      <c r="N125" s="69"/>
-      <c r="O125" s="53"/>
+      <c r="A125" s="42"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="45"/>
+      <c r="I125" s="45"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="49"/>
+      <c r="L125" s="61"/>
+      <c r="M125" s="62"/>
+      <c r="N125" s="61"/>
+      <c r="O125" s="49"/>
     </row>
     <row r="126" ht="23" customHeight="1" spans="1:15">
-      <c r="A126" s="46"/>
-      <c r="B126" s="47"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="49"/>
-      <c r="E126" s="49"/>
-      <c r="F126" s="49"/>
-      <c r="G126" s="49"/>
-      <c r="H126" s="49"/>
-      <c r="I126" s="49"/>
-      <c r="J126" s="50"/>
-      <c r="K126" s="53"/>
-      <c r="L126" s="69"/>
-      <c r="M126" s="70"/>
-      <c r="N126" s="69"/>
-      <c r="O126" s="53"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="45"/>
+      <c r="J126" s="46"/>
+      <c r="K126" s="49"/>
+      <c r="L126" s="61"/>
+      <c r="M126" s="62"/>
+      <c r="N126" s="61"/>
+      <c r="O126" s="49"/>
     </row>
     <row r="127" ht="23" customHeight="1" spans="1:15">
-      <c r="A127" s="46"/>
-      <c r="B127" s="47"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="49"/>
-      <c r="E127" s="49"/>
-      <c r="F127" s="49"/>
-      <c r="G127" s="49"/>
-      <c r="H127" s="49"/>
-      <c r="I127" s="49"/>
-      <c r="J127" s="50"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="69"/>
-      <c r="M127" s="70"/>
-      <c r="N127" s="69"/>
-      <c r="O127" s="53"/>
+      <c r="A127" s="42"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="45"/>
+      <c r="I127" s="45"/>
+      <c r="J127" s="46"/>
+      <c r="K127" s="49"/>
+      <c r="L127" s="61"/>
+      <c r="M127" s="62"/>
+      <c r="N127" s="61"/>
+      <c r="O127" s="49"/>
     </row>
     <row r="128" ht="23" customHeight="1" spans="1:15">
-      <c r="A128" s="46"/>
-      <c r="B128" s="47"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="49"/>
-      <c r="E128" s="49"/>
-      <c r="F128" s="49"/>
-      <c r="G128" s="49"/>
-      <c r="H128" s="49"/>
-      <c r="I128" s="49"/>
-      <c r="J128" s="50"/>
-      <c r="K128" s="53"/>
-      <c r="L128" s="69"/>
-      <c r="M128" s="70"/>
-      <c r="N128" s="69"/>
-      <c r="O128" s="53"/>
+      <c r="A128" s="42"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="45"/>
+      <c r="I128" s="45"/>
+      <c r="J128" s="46"/>
+      <c r="K128" s="49"/>
+      <c r="L128" s="61"/>
+      <c r="M128" s="62"/>
+      <c r="N128" s="61"/>
+      <c r="O128" s="49"/>
     </row>
     <row r="129" ht="23" customHeight="1" spans="1:15">
-      <c r="A129" s="46"/>
-      <c r="B129" s="47"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="49"/>
-      <c r="E129" s="49"/>
-      <c r="F129" s="49"/>
-      <c r="G129" s="49"/>
-      <c r="H129" s="49"/>
-      <c r="I129" s="49"/>
-      <c r="J129" s="50"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="69"/>
-      <c r="M129" s="70"/>
-      <c r="N129" s="69"/>
-      <c r="O129" s="53"/>
+      <c r="A129" s="42"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="45"/>
+      <c r="I129" s="45"/>
+      <c r="J129" s="46"/>
+      <c r="K129" s="49"/>
+      <c r="L129" s="61"/>
+      <c r="M129" s="62"/>
+      <c r="N129" s="61"/>
+      <c r="O129" s="49"/>
     </row>
     <row r="130" ht="23" customHeight="1" spans="1:15">
-      <c r="A130" s="46"/>
-      <c r="B130" s="47"/>
-      <c r="C130" s="48"/>
-      <c r="D130" s="49"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="49"/>
-      <c r="G130" s="49"/>
-      <c r="H130" s="49"/>
-      <c r="I130" s="49"/>
-      <c r="J130" s="50"/>
-      <c r="K130" s="53"/>
-      <c r="L130" s="69"/>
-      <c r="M130" s="70"/>
-      <c r="N130" s="69"/>
-      <c r="O130" s="53"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="45"/>
+      <c r="I130" s="45"/>
+      <c r="J130" s="46"/>
+      <c r="K130" s="49"/>
+      <c r="L130" s="61"/>
+      <c r="M130" s="62"/>
+      <c r="N130" s="61"/>
+      <c r="O130" s="49"/>
     </row>
     <row r="131" ht="23" customHeight="1" spans="1:15">
-      <c r="A131" s="46"/>
-      <c r="B131" s="47"/>
-      <c r="C131" s="48"/>
-      <c r="D131" s="49"/>
-      <c r="E131" s="49"/>
-      <c r="F131" s="49"/>
-      <c r="G131" s="49"/>
-      <c r="H131" s="49"/>
-      <c r="I131" s="49"/>
-      <c r="J131" s="50"/>
-      <c r="K131" s="53"/>
-      <c r="L131" s="69"/>
-      <c r="M131" s="70"/>
-      <c r="N131" s="69"/>
-      <c r="O131" s="53"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="45"/>
+      <c r="I131" s="45"/>
+      <c r="J131" s="46"/>
+      <c r="K131" s="49"/>
+      <c r="L131" s="61"/>
+      <c r="M131" s="62"/>
+      <c r="N131" s="61"/>
+      <c r="O131" s="49"/>
     </row>
     <row r="132" ht="23" customHeight="1" spans="1:15">
-      <c r="A132" s="46"/>
-      <c r="B132" s="47"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="49"/>
-      <c r="E132" s="49"/>
-      <c r="F132" s="49"/>
-      <c r="G132" s="49"/>
-      <c r="H132" s="49"/>
-      <c r="I132" s="49"/>
-      <c r="J132" s="50"/>
-      <c r="K132" s="53"/>
-      <c r="L132" s="69"/>
-      <c r="M132" s="70"/>
-      <c r="N132" s="69"/>
-      <c r="O132" s="53"/>
+      <c r="A132" s="42"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="45"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="45"/>
+      <c r="I132" s="45"/>
+      <c r="J132" s="46"/>
+      <c r="K132" s="49"/>
+      <c r="L132" s="61"/>
+      <c r="M132" s="62"/>
+      <c r="N132" s="61"/>
+      <c r="O132" s="49"/>
     </row>
     <row r="133" ht="23" customHeight="1" spans="1:15">
-      <c r="A133" s="46"/>
-      <c r="B133" s="47"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="49"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="49"/>
-      <c r="G133" s="49"/>
-      <c r="H133" s="49"/>
-      <c r="I133" s="49"/>
-      <c r="J133" s="50"/>
-      <c r="K133" s="53"/>
-      <c r="L133" s="69"/>
-      <c r="M133" s="70"/>
-      <c r="N133" s="69"/>
-      <c r="O133" s="53"/>
+      <c r="A133" s="42"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="45"/>
+      <c r="I133" s="45"/>
+      <c r="J133" s="46"/>
+      <c r="K133" s="49"/>
+      <c r="L133" s="61"/>
+      <c r="M133" s="62"/>
+      <c r="N133" s="61"/>
+      <c r="O133" s="49"/>
     </row>
     <row r="134" ht="23" customHeight="1" spans="1:15">
-      <c r="A134" s="46"/>
-      <c r="B134" s="47"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="49"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="49"/>
-      <c r="G134" s="49"/>
-      <c r="H134" s="49"/>
-      <c r="I134" s="49"/>
-      <c r="J134" s="50"/>
-      <c r="K134" s="53"/>
-      <c r="L134" s="69"/>
-      <c r="M134" s="70"/>
-      <c r="N134" s="69"/>
-      <c r="O134" s="53"/>
+      <c r="A134" s="42"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="45"/>
+      <c r="I134" s="45"/>
+      <c r="J134" s="46"/>
+      <c r="K134" s="49"/>
+      <c r="L134" s="61"/>
+      <c r="M134" s="62"/>
+      <c r="N134" s="61"/>
+      <c r="O134" s="49"/>
     </row>
     <row r="135" ht="23" customHeight="1" spans="1:15">
-      <c r="A135" s="46"/>
-      <c r="B135" s="47"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="49"/>
-      <c r="H135" s="49"/>
-      <c r="I135" s="49"/>
-      <c r="J135" s="50"/>
-      <c r="K135" s="53"/>
-      <c r="L135" s="69"/>
-      <c r="M135" s="70"/>
-      <c r="N135" s="69"/>
-      <c r="O135" s="53"/>
+      <c r="A135" s="42"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="45"/>
+      <c r="I135" s="45"/>
+      <c r="J135" s="46"/>
+      <c r="K135" s="49"/>
+      <c r="L135" s="61"/>
+      <c r="M135" s="62"/>
+      <c r="N135" s="61"/>
+      <c r="O135" s="49"/>
     </row>
     <row r="136" ht="23" customHeight="1" spans="1:15">
-      <c r="A136" s="46"/>
-      <c r="B136" s="47"/>
-      <c r="C136" s="48"/>
-      <c r="D136" s="49"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="49"/>
-      <c r="H136" s="49"/>
-      <c r="I136" s="49"/>
-      <c r="J136" s="50"/>
-      <c r="K136" s="53"/>
-      <c r="L136" s="69"/>
-      <c r="M136" s="70"/>
-      <c r="N136" s="69"/>
-      <c r="O136" s="53"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="45"/>
+      <c r="J136" s="46"/>
+      <c r="K136" s="49"/>
+      <c r="L136" s="61"/>
+      <c r="M136" s="62"/>
+      <c r="N136" s="61"/>
+      <c r="O136" s="49"/>
     </row>
     <row r="137" ht="23" customHeight="1" spans="1:15">
-      <c r="A137" s="46"/>
-      <c r="B137" s="47"/>
-      <c r="C137" s="48"/>
-      <c r="D137" s="49"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="49"/>
-      <c r="H137" s="49"/>
-      <c r="I137" s="49"/>
-      <c r="J137" s="50"/>
-      <c r="K137" s="53"/>
-      <c r="L137" s="69"/>
-      <c r="M137" s="70"/>
-      <c r="N137" s="69"/>
-      <c r="O137" s="53"/>
+      <c r="A137" s="42"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="45"/>
+      <c r="J137" s="46"/>
+      <c r="K137" s="49"/>
+      <c r="L137" s="61"/>
+      <c r="M137" s="62"/>
+      <c r="N137" s="61"/>
+      <c r="O137" s="49"/>
     </row>
     <row r="138" ht="23" customHeight="1" spans="1:15">
-      <c r="A138" s="46"/>
-      <c r="B138" s="47"/>
-      <c r="C138" s="48"/>
-      <c r="D138" s="49"/>
-      <c r="E138" s="49"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="49"/>
-      <c r="H138" s="49"/>
-      <c r="I138" s="49"/>
-      <c r="J138" s="50"/>
-      <c r="K138" s="53"/>
-      <c r="L138" s="69"/>
-      <c r="M138" s="70"/>
-      <c r="N138" s="69"/>
-      <c r="O138" s="53"/>
+      <c r="A138" s="42"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="45"/>
+      <c r="E138" s="45"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="45"/>
+      <c r="J138" s="46"/>
+      <c r="K138" s="49"/>
+      <c r="L138" s="61"/>
+      <c r="M138" s="62"/>
+      <c r="N138" s="61"/>
+      <c r="O138" s="49"/>
     </row>
     <row r="139" ht="23" customHeight="1" spans="1:15">
-      <c r="A139" s="46"/>
-      <c r="B139" s="47"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="49"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="49"/>
-      <c r="H139" s="49"/>
-      <c r="I139" s="49"/>
-      <c r="J139" s="50"/>
-      <c r="K139" s="53"/>
-      <c r="L139" s="69"/>
-      <c r="M139" s="70"/>
-      <c r="N139" s="69"/>
-      <c r="O139" s="53"/>
+      <c r="A139" s="42"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="45"/>
+      <c r="I139" s="45"/>
+      <c r="J139" s="46"/>
+      <c r="K139" s="49"/>
+      <c r="L139" s="61"/>
+      <c r="M139" s="62"/>
+      <c r="N139" s="61"/>
+      <c r="O139" s="49"/>
     </row>
     <row r="140" ht="23" customHeight="1" spans="1:15">
-      <c r="A140" s="46"/>
-      <c r="B140" s="47"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="49"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="49"/>
-      <c r="G140" s="49"/>
-      <c r="H140" s="49"/>
-      <c r="I140" s="49"/>
-      <c r="J140" s="50"/>
-      <c r="K140" s="53"/>
-      <c r="L140" s="69"/>
-      <c r="M140" s="70"/>
-      <c r="N140" s="69"/>
-      <c r="O140" s="53"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="45"/>
+      <c r="I140" s="45"/>
+      <c r="J140" s="46"/>
+      <c r="K140" s="49"/>
+      <c r="L140" s="61"/>
+      <c r="M140" s="62"/>
+      <c r="N140" s="61"/>
+      <c r="O140" s="49"/>
     </row>
     <row r="141" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="46"/>
-      <c r="B141" s="47"/>
-      <c r="C141" s="48"/>
-      <c r="D141" s="49"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="49"/>
-      <c r="G141" s="49"/>
-      <c r="H141" s="49"/>
-      <c r="I141" s="49"/>
-      <c r="J141" s="50"/>
-      <c r="K141" s="53"/>
-      <c r="L141" s="69"/>
-      <c r="M141" s="70"/>
-      <c r="N141" s="69"/>
-      <c r="O141" s="53"/>
+      <c r="A141" s="42"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="45"/>
+      <c r="J141" s="46"/>
+      <c r="K141" s="49"/>
+      <c r="L141" s="61"/>
+      <c r="M141" s="62"/>
+      <c r="N141" s="61"/>
+      <c r="O141" s="49"/>
     </row>
     <row r="142" ht="23" customHeight="1" spans="1:15">
-      <c r="A142" s="46"/>
-      <c r="B142" s="47"/>
-      <c r="C142" s="48"/>
-      <c r="D142" s="49"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="49"/>
-      <c r="G142" s="49"/>
-      <c r="H142" s="49"/>
-      <c r="I142" s="49"/>
-      <c r="J142" s="50"/>
-      <c r="K142" s="53"/>
-      <c r="L142" s="69"/>
-      <c r="M142" s="70"/>
-      <c r="N142" s="69"/>
-      <c r="O142" s="53"/>
+      <c r="A142" s="42"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="45"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="45"/>
+      <c r="I142" s="45"/>
+      <c r="J142" s="46"/>
+      <c r="K142" s="49"/>
+      <c r="L142" s="61"/>
+      <c r="M142" s="62"/>
+      <c r="N142" s="61"/>
+      <c r="O142" s="49"/>
     </row>
     <row r="143" ht="23" customHeight="1" spans="1:15">
-      <c r="A143" s="46"/>
-      <c r="B143" s="47"/>
-      <c r="C143" s="48"/>
-      <c r="D143" s="49"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="49"/>
-      <c r="H143" s="49"/>
-      <c r="I143" s="49"/>
-      <c r="J143" s="50"/>
-      <c r="K143" s="53"/>
-      <c r="L143" s="69"/>
-      <c r="M143" s="70"/>
-      <c r="N143" s="69"/>
-      <c r="O143" s="53"/>
+      <c r="A143" s="42"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="45"/>
+      <c r="I143" s="45"/>
+      <c r="J143" s="46"/>
+      <c r="K143" s="49"/>
+      <c r="L143" s="61"/>
+      <c r="M143" s="62"/>
+      <c r="N143" s="61"/>
+      <c r="O143" s="49"/>
     </row>
     <row r="144" ht="23" customHeight="1" spans="1:15">
-      <c r="A144" s="46"/>
-      <c r="B144" s="47"/>
-      <c r="C144" s="48"/>
-      <c r="D144" s="49"/>
-      <c r="E144" s="49"/>
-      <c r="F144" s="49"/>
-      <c r="G144" s="49"/>
-      <c r="H144" s="49"/>
-      <c r="I144" s="49"/>
-      <c r="J144" s="50"/>
-      <c r="K144" s="53"/>
-      <c r="L144" s="69"/>
-      <c r="M144" s="70"/>
-      <c r="N144" s="69"/>
-      <c r="O144" s="53"/>
+      <c r="A144" s="42"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="45"/>
+      <c r="I144" s="45"/>
+      <c r="J144" s="46"/>
+      <c r="K144" s="49"/>
+      <c r="L144" s="61"/>
+      <c r="M144" s="62"/>
+      <c r="N144" s="61"/>
+      <c r="O144" s="49"/>
     </row>
     <row r="145" ht="23" customHeight="1" spans="1:15">
-      <c r="A145" s="46"/>
-      <c r="B145" s="47"/>
-      <c r="C145" s="48"/>
-      <c r="D145" s="49"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="49"/>
-      <c r="G145" s="49"/>
-      <c r="H145" s="49"/>
-      <c r="I145" s="49"/>
-      <c r="J145" s="50"/>
-      <c r="K145" s="53"/>
-      <c r="L145" s="69"/>
-      <c r="M145" s="70"/>
-      <c r="N145" s="69"/>
-      <c r="O145" s="53"/>
+      <c r="A145" s="42"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="45"/>
+      <c r="I145" s="45"/>
+      <c r="J145" s="46"/>
+      <c r="K145" s="49"/>
+      <c r="L145" s="61"/>
+      <c r="M145" s="62"/>
+      <c r="N145" s="61"/>
+      <c r="O145" s="49"/>
     </row>
     <row r="146" ht="23" customHeight="1" spans="1:15">
-      <c r="A146" s="46"/>
-      <c r="B146" s="47"/>
-      <c r="C146" s="48"/>
-      <c r="D146" s="49"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="49"/>
-      <c r="G146" s="49"/>
-      <c r="H146" s="49"/>
-      <c r="I146" s="49"/>
-      <c r="J146" s="50"/>
-      <c r="K146" s="53"/>
-      <c r="L146" s="69"/>
-      <c r="M146" s="70"/>
-      <c r="N146" s="69"/>
-      <c r="O146" s="53"/>
+      <c r="A146" s="42"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="45"/>
+      <c r="I146" s="45"/>
+      <c r="J146" s="46"/>
+      <c r="K146" s="49"/>
+      <c r="L146" s="61"/>
+      <c r="M146" s="62"/>
+      <c r="N146" s="61"/>
+      <c r="O146" s="49"/>
     </row>
     <row r="147" ht="23" customHeight="1" spans="1:15">
-      <c r="A147" s="46"/>
-      <c r="B147" s="47"/>
-      <c r="C147" s="48"/>
-      <c r="D147" s="49"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="49"/>
-      <c r="G147" s="49"/>
-      <c r="H147" s="49"/>
-      <c r="I147" s="49"/>
-      <c r="J147" s="50"/>
-      <c r="K147" s="53"/>
-      <c r="L147" s="69"/>
-      <c r="M147" s="70"/>
-      <c r="N147" s="69"/>
-      <c r="O147" s="53"/>
+      <c r="A147" s="42"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="45"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="45"/>
+      <c r="I147" s="45"/>
+      <c r="J147" s="46"/>
+      <c r="K147" s="49"/>
+      <c r="L147" s="61"/>
+      <c r="M147" s="62"/>
+      <c r="N147" s="61"/>
+      <c r="O147" s="49"/>
     </row>
     <row r="148" ht="23" customHeight="1" spans="1:15">
-      <c r="A148" s="46"/>
-      <c r="B148" s="47"/>
-      <c r="C148" s="48"/>
-      <c r="D148" s="49"/>
-      <c r="E148" s="49"/>
-      <c r="F148" s="49"/>
-      <c r="G148" s="49"/>
-      <c r="H148" s="49"/>
-      <c r="I148" s="49"/>
-      <c r="J148" s="50"/>
-      <c r="K148" s="53"/>
-      <c r="L148" s="69"/>
-      <c r="M148" s="70"/>
-      <c r="N148" s="69"/>
-      <c r="O148" s="53"/>
+      <c r="A148" s="42"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="45"/>
+      <c r="J148" s="46"/>
+      <c r="K148" s="49"/>
+      <c r="L148" s="61"/>
+      <c r="M148" s="62"/>
+      <c r="N148" s="61"/>
+      <c r="O148" s="49"/>
     </row>
     <row r="149" ht="23" customHeight="1" spans="1:15">
-      <c r="A149" s="46"/>
-      <c r="B149" s="47"/>
-      <c r="C149" s="48"/>
-      <c r="D149" s="49"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="49"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="49"/>
-      <c r="I149" s="49"/>
-      <c r="J149" s="50"/>
-      <c r="K149" s="53"/>
-      <c r="L149" s="69"/>
-      <c r="M149" s="70"/>
-      <c r="N149" s="69"/>
-      <c r="O149" s="53"/>
+      <c r="A149" s="42"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="45"/>
+      <c r="J149" s="46"/>
+      <c r="K149" s="49"/>
+      <c r="L149" s="61"/>
+      <c r="M149" s="62"/>
+      <c r="N149" s="61"/>
+      <c r="O149" s="49"/>
     </row>
     <row r="150" ht="23" customHeight="1" spans="1:15">
-      <c r="A150" s="46"/>
-      <c r="B150" s="47"/>
-      <c r="C150" s="48"/>
-      <c r="D150" s="49"/>
-      <c r="E150" s="49"/>
-      <c r="F150" s="49"/>
-      <c r="G150" s="49"/>
-      <c r="H150" s="49"/>
-      <c r="I150" s="49"/>
-      <c r="J150" s="50"/>
-      <c r="K150" s="53"/>
-      <c r="L150" s="69"/>
-      <c r="M150" s="70"/>
-      <c r="N150" s="69"/>
-      <c r="O150" s="53"/>
+      <c r="A150" s="42"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="45"/>
+      <c r="J150" s="46"/>
+      <c r="K150" s="49"/>
+      <c r="L150" s="61"/>
+      <c r="M150" s="62"/>
+      <c r="N150" s="61"/>
+      <c r="O150" s="49"/>
     </row>
     <row r="151" ht="23" customHeight="1" spans="1:15">
-      <c r="A151" s="46"/>
-      <c r="B151" s="47"/>
-      <c r="C151" s="48"/>
-      <c r="D151" s="49"/>
-      <c r="E151" s="49"/>
-      <c r="F151" s="49"/>
-      <c r="G151" s="49"/>
-      <c r="H151" s="49"/>
-      <c r="I151" s="49"/>
-      <c r="J151" s="50"/>
-      <c r="K151" s="53"/>
-      <c r="L151" s="69"/>
-      <c r="M151" s="70"/>
-      <c r="N151" s="69"/>
-      <c r="O151" s="53"/>
+      <c r="A151" s="42"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="45"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="45"/>
+      <c r="H151" s="45"/>
+      <c r="I151" s="45"/>
+      <c r="J151" s="46"/>
+      <c r="K151" s="49"/>
+      <c r="L151" s="61"/>
+      <c r="M151" s="62"/>
+      <c r="N151" s="61"/>
+      <c r="O151" s="49"/>
     </row>
     <row r="152" ht="23" customHeight="1" spans="1:15">
-      <c r="A152" s="46"/>
-      <c r="B152" s="47"/>
-      <c r="C152" s="48"/>
-      <c r="D152" s="49"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="49"/>
-      <c r="G152" s="49"/>
-      <c r="H152" s="49"/>
-      <c r="I152" s="49"/>
-      <c r="J152" s="50"/>
-      <c r="K152" s="53"/>
-      <c r="L152" s="69"/>
-      <c r="M152" s="70"/>
-      <c r="N152" s="69"/>
-      <c r="O152" s="53"/>
+      <c r="A152" s="42"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="45"/>
+      <c r="E152" s="45"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="45"/>
+      <c r="I152" s="45"/>
+      <c r="J152" s="46"/>
+      <c r="K152" s="49"/>
+      <c r="L152" s="61"/>
+      <c r="M152" s="62"/>
+      <c r="N152" s="61"/>
+      <c r="O152" s="49"/>
     </row>
     <row r="153" ht="23" customHeight="1" spans="1:15">
-      <c r="A153" s="46"/>
-      <c r="B153" s="47"/>
-      <c r="C153" s="48"/>
-      <c r="D153" s="49"/>
-      <c r="E153" s="49"/>
-      <c r="F153" s="49"/>
-      <c r="G153" s="49"/>
-      <c r="H153" s="49"/>
-      <c r="I153" s="49"/>
-      <c r="J153" s="50"/>
-      <c r="K153" s="53"/>
-      <c r="L153" s="69"/>
-      <c r="M153" s="70"/>
-      <c r="N153" s="69"/>
-      <c r="O153" s="53"/>
+      <c r="A153" s="42"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="45"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="45"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="46"/>
+      <c r="K153" s="49"/>
+      <c r="L153" s="61"/>
+      <c r="M153" s="62"/>
+      <c r="N153" s="61"/>
+      <c r="O153" s="49"/>
     </row>
     <row r="154" ht="23" customHeight="1" spans="1:15">
-      <c r="A154" s="46"/>
-      <c r="B154" s="47"/>
-      <c r="C154" s="48"/>
-      <c r="D154" s="49"/>
-      <c r="E154" s="49"/>
-      <c r="F154" s="49"/>
-      <c r="G154" s="49"/>
-      <c r="H154" s="49"/>
-      <c r="I154" s="49"/>
-      <c r="J154" s="50"/>
-      <c r="K154" s="53"/>
-      <c r="L154" s="69"/>
-      <c r="M154" s="70"/>
-      <c r="N154" s="69"/>
-      <c r="O154" s="53"/>
+      <c r="A154" s="42"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="44"/>
+      <c r="D154" s="45"/>
+      <c r="E154" s="45"/>
+      <c r="F154" s="45"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="45"/>
+      <c r="I154" s="45"/>
+      <c r="J154" s="46"/>
+      <c r="K154" s="49"/>
+      <c r="L154" s="61"/>
+      <c r="M154" s="62"/>
+      <c r="N154" s="61"/>
+      <c r="O154" s="49"/>
     </row>
     <row r="155" ht="23" customHeight="1" spans="1:15">
-      <c r="A155" s="46"/>
-      <c r="B155" s="47"/>
-      <c r="C155" s="48"/>
-      <c r="D155" s="49"/>
-      <c r="E155" s="49"/>
-      <c r="F155" s="49"/>
-      <c r="G155" s="49"/>
-      <c r="H155" s="49"/>
-      <c r="I155" s="49"/>
-      <c r="J155" s="50"/>
-      <c r="K155" s="53"/>
-      <c r="L155" s="69"/>
-      <c r="M155" s="70"/>
-      <c r="N155" s="69"/>
-      <c r="O155" s="53"/>
+      <c r="A155" s="42"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="45"/>
+      <c r="E155" s="45"/>
+      <c r="F155" s="45"/>
+      <c r="G155" s="45"/>
+      <c r="H155" s="45"/>
+      <c r="I155" s="45"/>
+      <c r="J155" s="46"/>
+      <c r="K155" s="49"/>
+      <c r="L155" s="61"/>
+      <c r="M155" s="62"/>
+      <c r="N155" s="61"/>
+      <c r="O155" s="49"/>
     </row>
     <row r="156" ht="23" customHeight="1" spans="1:15">
-      <c r="A156" s="46"/>
-      <c r="B156" s="47"/>
-      <c r="C156" s="48"/>
-      <c r="D156" s="49"/>
-      <c r="E156" s="49"/>
-      <c r="F156" s="49"/>
-      <c r="G156" s="49"/>
-      <c r="H156" s="49"/>
-      <c r="I156" s="49"/>
-      <c r="J156" s="50"/>
-      <c r="K156" s="53"/>
-      <c r="L156" s="69"/>
-      <c r="M156" s="70"/>
-      <c r="N156" s="69"/>
-      <c r="O156" s="53"/>
+      <c r="A156" s="42"/>
+      <c r="B156" s="43"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="45"/>
+      <c r="E156" s="45"/>
+      <c r="F156" s="45"/>
+      <c r="G156" s="45"/>
+      <c r="H156" s="45"/>
+      <c r="I156" s="45"/>
+      <c r="J156" s="46"/>
+      <c r="K156" s="49"/>
+      <c r="L156" s="61"/>
+      <c r="M156" s="62"/>
+      <c r="N156" s="61"/>
+      <c r="O156" s="49"/>
     </row>
     <row r="157" ht="23" customHeight="1" spans="1:15">
-      <c r="A157" s="46"/>
-      <c r="B157" s="47"/>
-      <c r="C157" s="48"/>
-      <c r="D157" s="49"/>
-      <c r="E157" s="49"/>
-      <c r="F157" s="49"/>
-      <c r="G157" s="49"/>
-      <c r="H157" s="49"/>
-      <c r="I157" s="49"/>
-      <c r="J157" s="50"/>
-      <c r="K157" s="53"/>
-      <c r="L157" s="69"/>
-      <c r="M157" s="70"/>
-      <c r="N157" s="69"/>
-      <c r="O157" s="53"/>
+      <c r="A157" s="42"/>
+      <c r="B157" s="43"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="45"/>
+      <c r="E157" s="45"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="45"/>
+      <c r="H157" s="45"/>
+      <c r="I157" s="45"/>
+      <c r="J157" s="46"/>
+      <c r="K157" s="49"/>
+      <c r="L157" s="61"/>
+      <c r="M157" s="62"/>
+      <c r="N157" s="61"/>
+      <c r="O157" s="49"/>
     </row>
     <row r="158" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="46"/>
-      <c r="B158" s="47"/>
-      <c r="C158" s="48"/>
-      <c r="D158" s="49"/>
-      <c r="E158" s="49"/>
-      <c r="F158" s="49"/>
-      <c r="G158" s="49"/>
-      <c r="H158" s="49"/>
-      <c r="I158" s="49"/>
-      <c r="J158" s="50"/>
-      <c r="K158" s="53"/>
-      <c r="L158" s="69"/>
-      <c r="M158" s="70"/>
-      <c r="N158" s="69"/>
-      <c r="O158" s="53"/>
+      <c r="A158" s="42"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="45"/>
+      <c r="E158" s="45"/>
+      <c r="F158" s="45"/>
+      <c r="G158" s="45"/>
+      <c r="H158" s="45"/>
+      <c r="I158" s="45"/>
+      <c r="J158" s="46"/>
+      <c r="K158" s="49"/>
+      <c r="L158" s="61"/>
+      <c r="M158" s="62"/>
+      <c r="N158" s="61"/>
+      <c r="O158" s="49"/>
     </row>
     <row r="159" ht="23" customHeight="1" spans="1:15">
-      <c r="A159" s="46"/>
-      <c r="B159" s="47"/>
-      <c r="C159" s="48"/>
-      <c r="D159" s="49"/>
-      <c r="E159" s="49"/>
-      <c r="F159" s="49"/>
-      <c r="G159" s="49"/>
-      <c r="H159" s="49"/>
-      <c r="I159" s="49"/>
-      <c r="J159" s="50"/>
-      <c r="K159" s="53"/>
-      <c r="L159" s="69"/>
-      <c r="M159" s="70"/>
-      <c r="N159" s="69"/>
-      <c r="O159" s="53"/>
+      <c r="A159" s="42"/>
+      <c r="B159" s="43"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="45"/>
+      <c r="E159" s="45"/>
+      <c r="F159" s="45"/>
+      <c r="G159" s="45"/>
+      <c r="H159" s="45"/>
+      <c r="I159" s="45"/>
+      <c r="J159" s="46"/>
+      <c r="K159" s="49"/>
+      <c r="L159" s="61"/>
+      <c r="M159" s="62"/>
+      <c r="N159" s="61"/>
+      <c r="O159" s="49"/>
     </row>
     <row r="160" ht="23" customHeight="1" spans="1:15">
-      <c r="A160" s="46"/>
-      <c r="B160" s="47"/>
-      <c r="C160" s="48"/>
-      <c r="D160" s="49"/>
-      <c r="E160" s="49"/>
-      <c r="F160" s="49"/>
-      <c r="G160" s="49"/>
-      <c r="H160" s="49"/>
-      <c r="I160" s="49"/>
-      <c r="J160" s="50"/>
-      <c r="K160" s="53"/>
-      <c r="L160" s="69"/>
-      <c r="M160" s="70"/>
-      <c r="N160" s="69"/>
-      <c r="O160" s="53"/>
+      <c r="A160" s="42"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
+      <c r="F160" s="45"/>
+      <c r="G160" s="45"/>
+      <c r="H160" s="45"/>
+      <c r="I160" s="45"/>
+      <c r="J160" s="46"/>
+      <c r="K160" s="49"/>
+      <c r="L160" s="61"/>
+      <c r="M160" s="62"/>
+      <c r="N160" s="61"/>
+      <c r="O160" s="49"/>
     </row>
     <row r="161" ht="23" customHeight="1" spans="1:15">
-      <c r="A161" s="46"/>
-      <c r="B161" s="47"/>
-      <c r="C161" s="48"/>
-      <c r="D161" s="49"/>
-      <c r="E161" s="49"/>
-      <c r="F161" s="49"/>
-      <c r="G161" s="49"/>
-      <c r="H161" s="49"/>
-      <c r="I161" s="49"/>
-      <c r="J161" s="50"/>
-      <c r="K161" s="53"/>
-      <c r="L161" s="69"/>
-      <c r="M161" s="70"/>
-      <c r="N161" s="69"/>
-      <c r="O161" s="53"/>
+      <c r="A161" s="42"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="45"/>
+      <c r="H161" s="45"/>
+      <c r="I161" s="45"/>
+      <c r="J161" s="46"/>
+      <c r="K161" s="49"/>
+      <c r="L161" s="61"/>
+      <c r="M161" s="62"/>
+      <c r="N161" s="61"/>
+      <c r="O161" s="49"/>
     </row>
     <row r="162" ht="23" customHeight="1" spans="1:15">
-      <c r="A162" s="46"/>
-      <c r="B162" s="47"/>
-      <c r="C162" s="48"/>
-      <c r="D162" s="49"/>
-      <c r="E162" s="49"/>
-      <c r="F162" s="49"/>
-      <c r="G162" s="49"/>
-      <c r="H162" s="49"/>
-      <c r="I162" s="49"/>
-      <c r="J162" s="50"/>
-      <c r="K162" s="53"/>
-      <c r="L162" s="69"/>
-      <c r="M162" s="70"/>
-      <c r="N162" s="69"/>
-      <c r="O162" s="53"/>
+      <c r="A162" s="42"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="45"/>
+      <c r="E162" s="45"/>
+      <c r="F162" s="45"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="45"/>
+      <c r="I162" s="45"/>
+      <c r="J162" s="46"/>
+      <c r="K162" s="49"/>
+      <c r="L162" s="61"/>
+      <c r="M162" s="62"/>
+      <c r="N162" s="61"/>
+      <c r="O162" s="49"/>
     </row>
     <row r="163" ht="23" customHeight="1" spans="1:15">
-      <c r="A163" s="46"/>
-      <c r="B163" s="47"/>
-      <c r="C163" s="48"/>
-      <c r="D163" s="49"/>
-      <c r="E163" s="49"/>
-      <c r="F163" s="49"/>
-      <c r="G163" s="49"/>
-      <c r="H163" s="49"/>
-      <c r="I163" s="49"/>
-      <c r="J163" s="50"/>
-      <c r="K163" s="53"/>
-      <c r="L163" s="69"/>
-      <c r="M163" s="70"/>
-      <c r="N163" s="69"/>
-      <c r="O163" s="53"/>
+      <c r="A163" s="42"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="44"/>
+      <c r="D163" s="45"/>
+      <c r="E163" s="45"/>
+      <c r="F163" s="45"/>
+      <c r="G163" s="45"/>
+      <c r="H163" s="45"/>
+      <c r="I163" s="45"/>
+      <c r="J163" s="46"/>
+      <c r="K163" s="49"/>
+      <c r="L163" s="61"/>
+      <c r="M163" s="62"/>
+      <c r="N163" s="61"/>
+      <c r="O163" s="49"/>
     </row>
     <row r="164" ht="23" customHeight="1" spans="1:15">
-      <c r="A164" s="46"/>
-      <c r="B164" s="47"/>
-      <c r="C164" s="48"/>
-      <c r="D164" s="49"/>
-      <c r="E164" s="49"/>
-      <c r="F164" s="49"/>
-      <c r="G164" s="49"/>
-      <c r="H164" s="49"/>
-      <c r="I164" s="49"/>
-      <c r="J164" s="50"/>
-      <c r="K164" s="53"/>
-      <c r="L164" s="69"/>
-      <c r="M164" s="70"/>
-      <c r="N164" s="69"/>
-      <c r="O164" s="53"/>
+      <c r="A164" s="42"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="45"/>
+      <c r="E164" s="45"/>
+      <c r="F164" s="45"/>
+      <c r="G164" s="45"/>
+      <c r="H164" s="45"/>
+      <c r="I164" s="45"/>
+      <c r="J164" s="46"/>
+      <c r="K164" s="49"/>
+      <c r="L164" s="61"/>
+      <c r="M164" s="62"/>
+      <c r="N164" s="61"/>
+      <c r="O164" s="49"/>
     </row>
     <row r="165" ht="23" customHeight="1" spans="1:15">
-      <c r="A165" s="46"/>
-      <c r="B165" s="47"/>
-      <c r="C165" s="48"/>
-      <c r="D165" s="49"/>
-      <c r="E165" s="49"/>
-      <c r="F165" s="49"/>
-      <c r="G165" s="49"/>
-      <c r="H165" s="49"/>
-      <c r="I165" s="49"/>
-      <c r="J165" s="50"/>
-      <c r="K165" s="53"/>
-      <c r="L165" s="69"/>
-      <c r="M165" s="70"/>
-      <c r="N165" s="69"/>
-      <c r="O165" s="53"/>
+      <c r="A165" s="42"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="45"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="45"/>
+      <c r="G165" s="45"/>
+      <c r="H165" s="45"/>
+      <c r="I165" s="45"/>
+      <c r="J165" s="46"/>
+      <c r="K165" s="49"/>
+      <c r="L165" s="61"/>
+      <c r="M165" s="62"/>
+      <c r="N165" s="61"/>
+      <c r="O165" s="49"/>
     </row>
     <row r="166" ht="23" customHeight="1" spans="1:15">
-      <c r="A166" s="46"/>
-      <c r="B166" s="47"/>
-      <c r="C166" s="48"/>
-      <c r="D166" s="49"/>
-      <c r="E166" s="49"/>
-      <c r="F166" s="49"/>
-      <c r="G166" s="49"/>
-      <c r="H166" s="49"/>
-      <c r="I166" s="49"/>
-      <c r="J166" s="50"/>
-      <c r="K166" s="53"/>
-      <c r="L166" s="69"/>
-      <c r="M166" s="70"/>
-      <c r="N166" s="69"/>
-      <c r="O166" s="53"/>
+      <c r="A166" s="42"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="45"/>
+      <c r="E166" s="45"/>
+      <c r="F166" s="45"/>
+      <c r="G166" s="45"/>
+      <c r="H166" s="45"/>
+      <c r="I166" s="45"/>
+      <c r="J166" s="46"/>
+      <c r="K166" s="49"/>
+      <c r="L166" s="61"/>
+      <c r="M166" s="62"/>
+      <c r="N166" s="61"/>
+      <c r="O166" s="49"/>
     </row>
     <row r="167" ht="23" customHeight="1" spans="1:15">
-      <c r="A167" s="46"/>
-      <c r="B167" s="47"/>
-      <c r="C167" s="48"/>
-      <c r="D167" s="49"/>
-      <c r="E167" s="49"/>
-      <c r="F167" s="49"/>
-      <c r="G167" s="49"/>
-      <c r="H167" s="49"/>
-      <c r="I167" s="49"/>
-      <c r="J167" s="50"/>
-      <c r="K167" s="53"/>
-      <c r="L167" s="69"/>
-      <c r="M167" s="70"/>
-      <c r="N167" s="69"/>
-      <c r="O167" s="53"/>
+      <c r="A167" s="42"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="45"/>
+      <c r="E167" s="45"/>
+      <c r="F167" s="45"/>
+      <c r="G167" s="45"/>
+      <c r="H167" s="45"/>
+      <c r="I167" s="45"/>
+      <c r="J167" s="46"/>
+      <c r="K167" s="49"/>
+      <c r="L167" s="61"/>
+      <c r="M167" s="62"/>
+      <c r="N167" s="61"/>
+      <c r="O167" s="49"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -9654,2279 +9618,2279 @@
   <sheetPr/>
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD52"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="49.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10" style="10" customWidth="1"/>
-    <col min="4" max="4" width="47.3333333333333" style="11" customWidth="1"/>
-    <col min="5" max="5" width="70.375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="30.3333333333333" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="11" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="11" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="13" customWidth="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="15" customWidth="1"/>
-    <col min="14" max="14" width="19" style="14" customWidth="1"/>
-    <col min="15" max="15" width="49.8333333333333" style="13" customWidth="1"/>
+    <col min="1" max="1" width="39.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="49.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10" style="9" customWidth="1"/>
+    <col min="4" max="4" width="47.3333333333333" style="10" customWidth="1"/>
+    <col min="5" max="5" width="70.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.3333333333333" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="10" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="14" customWidth="1"/>
+    <col min="14" max="14" width="19" style="13" customWidth="1"/>
+    <col min="15" max="15" width="49.8333333333333" style="12" customWidth="1"/>
     <col min="16" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.15" spans="1:15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>726</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>728</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>729</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="18" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="17" t="s">
         <v>731</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="54"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.15" spans="1:15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="10" customHeight="1" spans="1:15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="26"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>733</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>725</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>734</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>735</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>736</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>737</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>738</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>739</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>740</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="54" t="s">
         <v>741</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="28" t="s">
+      <c r="K4" s="55"/>
+      <c r="L4" s="27" t="s">
         <v>742</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="27" t="s">
         <v>743</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="27" t="s">
         <v>744</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="27" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="26" customHeight="1" spans="1:15">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="22" t="s">
         <v>751</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>753</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="30">
         <v>1500</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="62"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="25"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
         <v>754</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="29" t="s">
         <v>755</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="30">
         <v>1000</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="62"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23" t="s">
         <v>756</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="29" t="s">
         <v>757</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="30">
         <v>1000</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="62"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="25"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
         <v>758</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="29" t="s">
         <v>759</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="30">
         <v>2000</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="62"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="23" t="s">
         <v>760</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>761</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="32">
         <v>1000</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="66"/>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="29" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="58"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A10" s="22" t="s">
         <v>762</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="23" t="s">
         <v>763</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>764</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="34" t="s">
         <v>765</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="62"/>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="33" t="s">
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="35" t="s">
         <v>767</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="62"/>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="33" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23" t="s">
         <v>768</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>769</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="62"/>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="33" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
         <v>771</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="29" t="s">
         <v>772</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="62"/>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="33" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="29" t="s">
         <v>774</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="37" t="s">
         <v>775</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="62"/>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="33" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
         <v>776</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="29" t="s">
         <v>777</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="62"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="22" customHeight="1" spans="1:7">
-      <c r="A16" s="29"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23" t="s">
         <v>778</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="35" t="s">
         <v>767</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="38" t="s">
         <v>779</v>
       </c>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="29" t="s">
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A17" s="22" t="s">
         <v>780</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="23" t="s">
         <v>781</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="29" t="s">
         <v>706</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="29" t="s">
         <v>772</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="37" t="s">
         <v>782</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="62"/>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="33" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
         <v>783</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="29" t="s">
         <v>706</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="29" t="s">
         <v>777</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="37">
         <v>20000</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="62"/>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="33" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="25"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23" t="s">
         <v>784</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="35" t="s">
         <v>767</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="62"/>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="33" t="s">
+      <c r="F19" s="38"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="25"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23" t="s">
         <v>785</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="29" t="s">
         <v>786</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="62"/>
-    </row>
-    <row r="21" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="33" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="25"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="62"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" s="4" customFormat="1" ht="22" customHeight="1" spans="1:7">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="22" t="s">
         <v>789</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="2" t="s">
         <v>363</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="33" t="s">
+      <c r="F22" s="39"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
         <v>792</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="29" t="s">
         <v>706</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="29" t="s">
         <v>772</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="37" t="s">
         <v>793</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="62"/>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="33" t="s">
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="29" t="s">
         <v>706</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="29" t="s">
         <v>777</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="37">
         <v>100000</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="62"/>
-    </row>
-    <row r="25" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33" t="s">
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="35" t="s">
         <v>796</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="62"/>
-    </row>
-    <row r="26" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="33" t="s">
+      <c r="F25" s="38"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="25"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="s">
         <v>785</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="29" t="s">
         <v>786</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="62"/>
-    </row>
-    <row r="27" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="33" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="25"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="62"/>
-    </row>
-    <row r="28" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A28" s="29" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="25"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A28" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="23" t="s">
         <v>798</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="29" t="s">
         <v>799</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="62"/>
-    </row>
-    <row r="29" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="33" t="s">
+      <c r="F28" s="34"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="25"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="29" t="s">
         <v>801</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="62"/>
-    </row>
-    <row r="30" s="6" customFormat="1" ht="31" customHeight="1" spans="1:15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="33" t="s">
+      <c r="F29" s="34"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="25"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="29" t="s">
         <v>803</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="62"/>
-    </row>
-    <row r="31" s="6" customFormat="1" ht="31" customHeight="1" spans="1:15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="33" t="s">
+      <c r="F30" s="34"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="25"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="29" t="s">
         <v>805</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="62"/>
-    </row>
-    <row r="32" s="6" customFormat="1" ht="31" customHeight="1" spans="1:15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="33" t="s">
+      <c r="F31" s="34"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="25"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
         <v>806</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="62"/>
-    </row>
-    <row r="33" s="6" customFormat="1" ht="31" customHeight="1" spans="1:15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="33" t="s">
+      <c r="F32" s="34"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="29" t="s">
         <v>809</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="62"/>
-    </row>
-    <row r="34" s="6" customFormat="1" ht="31" customHeight="1" spans="1:15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="33" t="s">
+      <c r="F33" s="34"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="25"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23" t="s">
         <v>810</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="29" t="s">
         <v>811</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="62"/>
-    </row>
-    <row r="35" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="33" t="s">
+      <c r="F34" s="34"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="25"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23" t="s">
         <v>812</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="40" t="s">
         <v>813</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="62"/>
-    </row>
-    <row r="36" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A36" s="29"/>
-      <c r="B36" s="33" t="s">
+      <c r="F35" s="34"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="25"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="29" t="s">
         <v>815</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="62"/>
-    </row>
-    <row r="37" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A37" s="29"/>
-      <c r="B37" s="33" t="s">
+      <c r="F36" s="34"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="25"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="29" t="s">
         <v>813</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="62"/>
-    </row>
-    <row r="38" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A38" s="29"/>
-      <c r="B38" s="33" t="s">
+      <c r="F37" s="3"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="25"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="29" t="s">
         <v>818</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="62"/>
-    </row>
-    <row r="39" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A39" s="29" t="s">
+      <c r="F38" s="3"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="25"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A39" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="23" t="s">
         <v>820</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="29" t="s">
         <v>706</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="29" t="s">
         <v>809</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="F39" s="37" t="s">
         <v>821</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="62"/>
-    </row>
-    <row r="40" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A40" s="29"/>
-      <c r="B40" s="33" t="s">
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="25"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="29" t="s">
         <v>823</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="37" t="s">
         <v>824</v>
       </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="62"/>
-    </row>
-    <row r="41" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="33" t="s">
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="25"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="29" t="s">
         <v>818</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="62"/>
-    </row>
-    <row r="42" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A42" s="29" t="s">
+      <c r="F41" s="34"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="25"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A42" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="29" t="s">
         <v>828</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="62"/>
-    </row>
-    <row r="43" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A43" s="29"/>
-      <c r="B43" s="33" t="s">
+      <c r="F42" s="34"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="25"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="29" t="s">
         <v>830</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="62"/>
-    </row>
-    <row r="44" s="6" customFormat="1" ht="21" customHeight="1" spans="1:15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="33" t="s">
+      <c r="F43" s="34"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="25"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="29" t="s">
         <v>832</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="62"/>
-    </row>
-    <row r="45" s="6" customFormat="1" ht="27" customHeight="1" spans="1:15">
-      <c r="A45" s="29"/>
-      <c r="B45" s="33" t="s">
+      <c r="F44" s="34"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="25"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="29" t="s">
         <v>834</v>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="62"/>
-    </row>
-    <row r="46" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A46" s="29"/>
-      <c r="B46" s="33" t="s">
+      <c r="F45" s="34"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="25"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="29" t="s">
         <v>836</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="62"/>
-    </row>
-    <row r="47" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A47" s="29"/>
-      <c r="B47" s="33" t="s">
+      <c r="F46" s="34"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="25"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="29" t="s">
         <v>838</v>
       </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="62"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="25"/>
     </row>
     <row r="48" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="22" t="s">
         <v>839</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="23" t="s">
         <v>756</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="29" t="s">
         <v>757</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="30">
         <v>1000</v>
       </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="62"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="25"/>
     </row>
     <row r="49" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
-      <c r="A49" s="29"/>
-      <c r="B49" s="33" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23" t="s">
         <v>758</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="29" t="s">
         <v>759</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="30">
         <v>2000</v>
       </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="62"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="25"/>
     </row>
     <row r="50" s="4" customFormat="1" ht="22" customHeight="1" spans="2:7">
       <c r="B50" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="2" t="s">
         <v>576</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F50" s="39">
         <v>1000</v>
       </c>
-      <c r="G50" s="31"/>
-    </row>
-    <row r="51" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A51" s="29"/>
-      <c r="B51" s="33" t="s">
+      <c r="G50" s="29"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="29" t="s">
         <v>842</v>
       </c>
-      <c r="F51" s="45"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="62"/>
-    </row>
-    <row r="52" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A52" s="29"/>
-      <c r="B52" s="33" t="s">
+      <c r="F51" s="41"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="25"/>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="29" t="s">
         <v>786</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="63"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="62"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="25"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A53" s="46"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="53"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="49"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A54" s="46"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="53"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="49"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A55" s="46"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="53"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="49"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A56" s="46"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="53"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="49"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="53"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="49"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A58" s="46"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="53"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="49"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A59" s="46"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="53"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="49"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A60" s="46"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="69"/>
-      <c r="O60" s="53"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="49"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A61" s="46"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="69"/>
-      <c r="O61" s="53"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="49"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A62" s="46"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="70"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="53"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="49"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A63" s="46"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="70"/>
-      <c r="N63" s="69"/>
-      <c r="O63" s="53"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="49"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A64" s="46"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="70"/>
-      <c r="N64" s="69"/>
-      <c r="O64" s="53"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="49"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="70"/>
-      <c r="N65" s="69"/>
-      <c r="O65" s="53"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="49"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="70"/>
-      <c r="N66" s="69"/>
-      <c r="O66" s="53"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="62"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="49"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:15">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="69"/>
-      <c r="M67" s="70"/>
-      <c r="N67" s="69"/>
-      <c r="O67" s="53"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="49"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:15">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="70"/>
-      <c r="N68" s="69"/>
-      <c r="O68" s="53"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="49"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:15">
-      <c r="A69" s="46"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="70"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="53"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="49"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:15">
-      <c r="A70" s="46"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="70"/>
-      <c r="N70" s="69"/>
-      <c r="O70" s="53"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="49"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:15">
-      <c r="A71" s="46"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="69"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="69"/>
-      <c r="O71" s="53"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="49"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:15">
-      <c r="A72" s="46"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="69"/>
-      <c r="M72" s="70"/>
-      <c r="N72" s="69"/>
-      <c r="O72" s="53"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="49"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:15">
-      <c r="A73" s="46"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="70"/>
-      <c r="N73" s="69"/>
-      <c r="O73" s="53"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="49"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A74" s="46"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="69"/>
-      <c r="M74" s="70"/>
-      <c r="N74" s="69"/>
-      <c r="O74" s="53"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="49"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A75" s="46"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="69"/>
-      <c r="M75" s="70"/>
-      <c r="N75" s="69"/>
-      <c r="O75" s="53"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="49"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:15">
-      <c r="A76" s="46"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="70"/>
-      <c r="N76" s="69"/>
-      <c r="O76" s="53"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="62"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="49"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:15">
-      <c r="A77" s="46"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="70"/>
-      <c r="N77" s="69"/>
-      <c r="O77" s="53"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="49"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:15">
-      <c r="A78" s="46"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="69"/>
-      <c r="O78" s="53"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="49"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A79" s="46"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="69"/>
-      <c r="M79" s="70"/>
-      <c r="N79" s="69"/>
-      <c r="O79" s="53"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="61"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="49"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A80" s="46"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="69"/>
-      <c r="M80" s="70"/>
-      <c r="N80" s="69"/>
-      <c r="O80" s="53"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="62"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="49"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A81" s="46"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="69"/>
-      <c r="M81" s="70"/>
-      <c r="N81" s="69"/>
-      <c r="O81" s="53"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="49"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A82" s="46"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="69"/>
-      <c r="M82" s="70"/>
-      <c r="N82" s="69"/>
-      <c r="O82" s="53"/>
-    </row>
-    <row r="83" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A83" s="73"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="78"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="80"/>
-      <c r="N83" s="79"/>
-      <c r="O83" s="78"/>
-    </row>
-    <row r="84" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="73"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="76"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="78"/>
-      <c r="L84" s="79"/>
-      <c r="M84" s="80"/>
-      <c r="N84" s="79"/>
-      <c r="O84" s="78"/>
-    </row>
-    <row r="85" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A85" s="73"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="76"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="78"/>
-      <c r="L85" s="79"/>
-      <c r="M85" s="80"/>
-      <c r="N85" s="79"/>
-      <c r="O85" s="78"/>
-    </row>
-    <row r="86" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="76"/>
-      <c r="I86" s="76"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="78"/>
-      <c r="L86" s="79"/>
-      <c r="M86" s="80"/>
-      <c r="N86" s="79"/>
-      <c r="O86" s="78"/>
-    </row>
-    <row r="87" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A87" s="73"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="H87" s="76"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="78"/>
-      <c r="L87" s="79"/>
-      <c r="M87" s="80"/>
-      <c r="N87" s="79"/>
-      <c r="O87" s="78"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="49"/>
+    </row>
+    <row r="83" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A83" s="63"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="70"/>
+      <c r="N83" s="69"/>
+      <c r="O83" s="68"/>
+    </row>
+    <row r="84" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A84" s="63"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="70"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="68"/>
+    </row>
+    <row r="85" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A85" s="63"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="70"/>
+      <c r="N85" s="69"/>
+      <c r="O85" s="68"/>
+    </row>
+    <row r="86" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A86" s="63"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="70"/>
+      <c r="N86" s="69"/>
+      <c r="O86" s="68"/>
+    </row>
+    <row r="87" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A87" s="63"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="68"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="70"/>
+      <c r="N87" s="69"/>
+      <c r="O87" s="68"/>
     </row>
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A88" s="46"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="69"/>
-      <c r="M88" s="70"/>
-      <c r="N88" s="69"/>
-      <c r="O88" s="53"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="62"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="49"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A89" s="46"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="70"/>
-      <c r="N89" s="69"/>
-      <c r="O89" s="53"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="62"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="49"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A90" s="46"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="70"/>
-      <c r="N90" s="69"/>
-      <c r="O90" s="53"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="49"/>
     </row>
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A91" s="46"/>
-      <c r="B91" s="47"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="69"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="69"/>
-      <c r="O91" s="53"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="62"/>
+      <c r="N91" s="61"/>
+      <c r="O91" s="49"/>
     </row>
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A92" s="46"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="70"/>
-      <c r="N92" s="69"/>
-      <c r="O92" s="53"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="62"/>
+      <c r="N92" s="61"/>
+      <c r="O92" s="49"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A93" s="46"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="50"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="70"/>
-      <c r="N93" s="69"/>
-      <c r="O93" s="53"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="46"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="62"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="49"/>
     </row>
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A94" s="46"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="69"/>
-      <c r="M94" s="70"/>
-      <c r="N94" s="69"/>
-      <c r="O94" s="53"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="61"/>
+      <c r="M94" s="62"/>
+      <c r="N94" s="61"/>
+      <c r="O94" s="49"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A95" s="46"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="69"/>
-      <c r="M95" s="70"/>
-      <c r="N95" s="69"/>
-      <c r="O95" s="53"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="61"/>
+      <c r="M95" s="62"/>
+      <c r="N95" s="61"/>
+      <c r="O95" s="49"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A96" s="46"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="70"/>
-      <c r="N96" s="69"/>
-      <c r="O96" s="53"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="61"/>
+      <c r="M96" s="62"/>
+      <c r="N96" s="61"/>
+      <c r="O96" s="49"/>
     </row>
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A97" s="46"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="69"/>
-      <c r="M97" s="70"/>
-      <c r="N97" s="69"/>
-      <c r="O97" s="53"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="62"/>
+      <c r="N97" s="61"/>
+      <c r="O97" s="49"/>
     </row>
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A98" s="46"/>
-      <c r="B98" s="47"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="69"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="69"/>
-      <c r="O98" s="53"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="61"/>
+      <c r="M98" s="62"/>
+      <c r="N98" s="61"/>
+      <c r="O98" s="49"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A99" s="46"/>
-      <c r="B99" s="47"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="70"/>
-      <c r="N99" s="69"/>
-      <c r="O99" s="53"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="62"/>
+      <c r="N99" s="61"/>
+      <c r="O99" s="49"/>
     </row>
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A100" s="46"/>
-      <c r="B100" s="47"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="49"/>
-      <c r="H100" s="49"/>
-      <c r="I100" s="49"/>
-      <c r="J100" s="50"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="69"/>
-      <c r="M100" s="70"/>
-      <c r="N100" s="69"/>
-      <c r="O100" s="53"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="62"/>
+      <c r="N100" s="61"/>
+      <c r="O100" s="49"/>
     </row>
     <row r="101" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A101" s="46"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="69"/>
-      <c r="M101" s="70"/>
-      <c r="N101" s="69"/>
-      <c r="O101" s="53"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="62"/>
+      <c r="N101" s="61"/>
+      <c r="O101" s="49"/>
     </row>
     <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A102" s="46"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="49"/>
-      <c r="H102" s="49"/>
-      <c r="I102" s="49"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="70"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="53"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="46"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="61"/>
+      <c r="M102" s="62"/>
+      <c r="N102" s="61"/>
+      <c r="O102" s="49"/>
     </row>
     <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A103" s="46"/>
-      <c r="B103" s="47"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="49"/>
-      <c r="I103" s="49"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="69"/>
-      <c r="M103" s="70"/>
-      <c r="N103" s="69"/>
-      <c r="O103" s="53"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="61"/>
+      <c r="M103" s="62"/>
+      <c r="N103" s="61"/>
+      <c r="O103" s="49"/>
     </row>
     <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A104" s="46"/>
-      <c r="B104" s="47"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="49"/>
-      <c r="I104" s="49"/>
-      <c r="J104" s="50"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="69"/>
-      <c r="M104" s="70"/>
-      <c r="N104" s="69"/>
-      <c r="O104" s="53"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="46"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="61"/>
+      <c r="M104" s="62"/>
+      <c r="N104" s="61"/>
+      <c r="O104" s="49"/>
     </row>
     <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A105" s="46"/>
-      <c r="B105" s="47"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
-      <c r="H105" s="49"/>
-      <c r="I105" s="49"/>
-      <c r="J105" s="50"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="69"/>
-      <c r="M105" s="70"/>
-      <c r="N105" s="69"/>
-      <c r="O105" s="53"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="46"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="61"/>
+      <c r="M105" s="62"/>
+      <c r="N105" s="61"/>
+      <c r="O105" s="49"/>
     </row>
     <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A106" s="46"/>
-      <c r="B106" s="47"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49"/>
-      <c r="J106" s="50"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="69"/>
-      <c r="M106" s="70"/>
-      <c r="N106" s="69"/>
-      <c r="O106" s="53"/>
+      <c r="A106" s="42"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="46"/>
+      <c r="K106" s="49"/>
+      <c r="L106" s="61"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="61"/>
+      <c r="O106" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
